--- a/AAII_Financials/Quarterly/LUXH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LUXH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>LUXH</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E8" s="3">
         <v>12700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>21500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E9" s="3">
         <v>7300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7700</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E10" s="3">
         <v>5400</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5200</v>
       </c>
       <c r="F10" s="3">
         <v>5200</v>
       </c>
       <c r="G10" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H10" s="3">
         <v>7700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1300</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +887,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E14" s="3">
         <v>2500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2900</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E17" s="3">
         <v>10700</v>
-      </c>
-      <c r="E17" s="3">
-        <v>10200</v>
       </c>
       <c r="F17" s="3">
         <v>10200</v>
       </c>
       <c r="G17" s="3">
+        <v>10200</v>
+      </c>
+      <c r="H17" s="3">
         <v>22700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11300</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
         <v>2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,23 +1042,24 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1035,16 +1069,19 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>200</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1067,75 +1104,84 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>600</v>
+        <v>4200</v>
       </c>
       <c r="E22" s="3">
         <v>600</v>
       </c>
       <c r="F22" s="3">
+        <v>600</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,23 +1424,26 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1383,40 +1453,46 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,25 +1619,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1562,37 +1649,43 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,26 +1745,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E45" s="3">
         <v>6600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1678,26 +1777,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E46" s="3">
         <v>6600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1900</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,22 +1841,25 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E48" s="3">
         <v>50000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>34200</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,23 +1969,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E52" s="3">
         <v>5200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2500</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,26 +2033,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>97100</v>
+      </c>
+      <c r="E54" s="3">
         <v>61800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>39900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1900</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,26 +2095,27 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E57" s="3">
         <v>5800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5600</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1994,26 +2125,29 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E58" s="3">
         <v>7300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1900</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2023,26 +2157,29 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E59" s="3">
         <v>12100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2052,26 +2189,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E60" s="3">
         <v>25100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10500</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,26 +2221,29 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E61" s="3">
         <v>2100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2500</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2110,26 +2253,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E62" s="3">
         <v>44000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>28900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,26 +2381,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>92300</v>
+      </c>
+      <c r="E66" s="3">
         <v>71200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>50100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13200</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,26 +2555,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11300</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,26 +2683,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-9400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-10200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-11200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-11300</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,23 +3402,26 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -3179,7 +3431,10 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LUXH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LUXH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>LUXH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,180 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="3">
         <v>14400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>12700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>11800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>10700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>21500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>9000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F9" s="3">
         <v>6700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>7300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>6600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>5500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>13800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>7700</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F10" s="3">
         <v>7700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>5400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>5200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>5200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>7700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +851,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +885,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,40 +923,52 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F14" s="3">
         <v>2900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>2500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>2700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>3500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>7300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>2400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>2900</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +999,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1016,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F17" s="3">
         <v>14900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>10700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>10200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>10200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>22700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>6100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>11300</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,52 +1108,60 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,87 +1180,105 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>4200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1203,8 +1294,14 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1560,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,31 +1791,33 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1652,20 +1825,26 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F42" s="3">
         <v>100</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1678,14 +1857,20 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1901,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,72 +1939,90 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F45" s="3">
         <v>8900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>6600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F46" s="3">
         <v>10200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>6600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1900</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,28 +2053,34 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>169700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>83500</v>
+      </c>
+      <c r="F48" s="3">
         <v>79900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>50000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>34200</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1876,8 +2091,14 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2129,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,29 +2205,35 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F52" s="3">
         <v>7100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>5200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2500</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2004,8 +2243,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2281,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>197200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>108000</v>
+      </c>
+      <c r="F54" s="3">
         <v>97100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>61800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>39900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1900</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,200 +2355,238 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F57" s="3">
         <v>3700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>5500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>5600</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F58" s="3">
         <v>6300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>7300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1900</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F59" s="3">
         <v>7500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>12100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>8800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>25400</v>
+      </c>
+      <c r="F60" s="3">
         <v>17500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>25100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>16900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>9500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>10500</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F61" s="3">
         <v>1700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>4900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>168800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>81600</v>
+      </c>
+      <c r="F62" s="3">
         <v>73100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>44000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>28900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2693,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>198600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>111300</v>
+      </c>
+      <c r="F66" s="3">
         <v>92300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>71200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>50100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>15000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>13200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2899,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-23800</v>
       </c>
       <c r="E72" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="G72" s="3">
         <v>-9400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-10200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-11200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-11300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3051,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F76" s="3">
         <v>4800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-9400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-10200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-11200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-11300</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,19 +3228,21 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2859,14 +3256,20 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3452,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-12400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,16 +3510,18 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3103,8 +3544,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,31 +3620,37 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-2800</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3199,8 +3658,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3826,52 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F100" s="3">
         <v>13700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3902,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LUXH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LUXH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>LUXH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E8" s="3">
         <v>22800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>21500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9000</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E9" s="3">
         <v>17500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7700</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E10" s="3">
         <v>5300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-5800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>5200</v>
       </c>
       <c r="I10" s="3">
         <v>5200</v>
       </c>
       <c r="J10" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K10" s="3">
         <v>7700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,46 +946,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>-3900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2900</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E17" s="3">
         <v>21700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>10200</v>
       </c>
       <c r="I17" s="3">
         <v>10200</v>
       </c>
       <c r="J17" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K17" s="3">
         <v>22700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11300</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E18" s="3">
         <v>1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,32 +1143,33 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1700</v>
+        <v>-28500</v>
       </c>
       <c r="E20" s="3">
         <v>-1700</v>
       </c>
       <c r="F20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1145,26 +1179,29 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-8200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1186,102 +1223,111 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E22" s="3">
         <v>2100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>600</v>
       </c>
       <c r="H22" s="3">
         <v>600</v>
       </c>
       <c r="I22" s="3">
+        <v>600</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,32 +1633,35 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1700</v>
+        <v>28500</v>
       </c>
       <c r="E32" s="3">
         <v>1700</v>
       </c>
       <c r="F32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1601,49 +1671,55 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2800</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2800</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,34 +1879,35 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E41" s="3">
         <v>2900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
@@ -1831,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1840,14 +1930,14 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>2700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>100</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1863,14 +1953,17 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,35 +2041,38 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7800</v>
+        <v>14700</v>
       </c>
       <c r="E45" s="3">
         <v>7800</v>
       </c>
       <c r="F45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G45" s="3">
         <v>8900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,35 +2082,38 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E46" s="3">
         <v>10600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1900</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2123,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,31 +2164,34 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E48" s="3">
         <v>169700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>83500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>79900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>50000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>34200</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2097,8 +2205,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,32 +2328,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E52" s="3">
         <v>16800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2500</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,35 +2410,38 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>217600</v>
+      </c>
+      <c r="E54" s="3">
         <v>197200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>108000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>97100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>61800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>39900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1900</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,35 +2487,36 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E57" s="3">
         <v>8100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5600</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,35 +2526,38 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
         <v>6500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1900</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,35 +2567,38 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E59" s="3">
         <v>10000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,35 +2608,38 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E60" s="3">
         <v>24600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>25400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>17500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>25100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,35 +2649,38 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E61" s="3">
         <v>5200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2547,35 +2690,38 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>178300</v>
+      </c>
+      <c r="E62" s="3">
         <v>168800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>81600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>73100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>44000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>28900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,35 +2854,38 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>204100</v>
+      </c>
+      <c r="E66" s="3">
         <v>198600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>111300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>92300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>71200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>50100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,35 +3076,38 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-21000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,35 +3240,38 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-9400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-10200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-11200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-11300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2800</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3244,8 +3443,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3262,14 +3461,17 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,19 +3732,20 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,20 +3853,23 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>2400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2800</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3652,8 +3882,8 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>13700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,32 +4157,35 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>900</v>
+      </c>
+      <c r="E102" s="3">
         <v>1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -3943,7 +4195,10 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LUXH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LUXH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>LUXH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E8" s="3">
         <v>31900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9000</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E9" s="3">
         <v>21700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>17500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7700</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E10" s="3">
         <v>10200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-5800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>5200</v>
       </c>
       <c r="J10" s="3">
         <v>5200</v>
       </c>
       <c r="K10" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L10" s="3">
         <v>7700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1300</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -960,38 +980,41 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>-3900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2900</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E17" s="3">
         <v>27100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10700</v>
-      </c>
-      <c r="I17" s="3">
-        <v>10200</v>
       </c>
       <c r="J17" s="3">
         <v>10200</v>
       </c>
       <c r="K17" s="3">
+        <v>10200</v>
+      </c>
+      <c r="L17" s="3">
         <v>22700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11300</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E18" s="3">
         <v>4800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,35 +1177,36 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-28500</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-1700</v>
       </c>
       <c r="F20" s="3">
         <v>-1700</v>
       </c>
       <c r="G20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1182,29 +1216,32 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-23700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1226,111 +1263,120 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E22" s="3">
         <v>1200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>600</v>
       </c>
       <c r="I22" s="3">
         <v>600</v>
       </c>
       <c r="J22" s="3">
+        <v>600</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-24900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-26800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2800</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,35 +1703,38 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>28500</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1700</v>
       </c>
       <c r="F32" s="3">
         <v>1700</v>
       </c>
       <c r="G32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1674,52 +1744,58 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-26800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2800</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-26800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2800</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,37 +1966,38 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E41" s="3">
         <v>3800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1933,14 +2023,14 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>2700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>100</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1956,37 +2046,40 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>12900</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,38 +2140,41 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E45" s="3">
         <v>14700</v>
-      </c>
-      <c r="E45" s="3">
-        <v>7800</v>
       </c>
       <c r="F45" s="3">
         <v>7800</v>
       </c>
       <c r="G45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="H45" s="3">
         <v>8900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,38 +2184,41 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E46" s="3">
         <v>18500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,34 +2272,37 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>231500</v>
+      </c>
+      <c r="E48" s="3">
         <v>178000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>169700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>83500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>79900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>50000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>34200</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
@@ -2208,8 +2316,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,35 +2448,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E52" s="3">
         <v>21000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,38 +2536,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>282300</v>
+      </c>
+      <c r="E54" s="3">
         <v>217600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>197200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>108000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>97100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>61800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>39900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,38 +2618,39 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E57" s="3">
         <v>8300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2660,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2538,29 +2672,29 @@
         <v>1500</v>
       </c>
       <c r="E58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F58" s="3">
         <v>6500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1900</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2570,38 +2704,41 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11100</v>
+        <v>10100</v>
       </c>
       <c r="E59" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F59" s="3">
         <v>10000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,38 +2748,41 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E60" s="3">
         <v>20900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>24600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>25400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>25100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,8 +2792,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2661,29 +2804,29 @@
         <v>4900</v>
       </c>
       <c r="E61" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F61" s="3">
         <v>5200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2693,38 +2836,41 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>234300</v>
+      </c>
+      <c r="E62" s="3">
         <v>178300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>168800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>81600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>73100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>44000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>28900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,38 +3012,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>260800</v>
+      </c>
+      <c r="E66" s="3">
         <v>204100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>198600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>111300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>92300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>71200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>50100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,38 +3250,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-50600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-21000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,38 +3426,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E76" s="3">
         <v>13400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-9400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-10200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-11200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-11300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-26800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2800</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3446,8 +3645,8 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3464,14 +3663,17 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-12400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,22 +3953,23 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,23 +4083,26 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2800</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3885,8 +4115,8 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E100" s="3">
         <v>5600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>13700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,35 +4409,38 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4198,7 +4450,10 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
